--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedalbatati/Anaconda Projects/OilSERV/Crew payment calculation/Crew-calculation-script/expense_calculator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammedalbatati/Anaconda Projects/OilSERV/complensation_calclator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C944B30-C790-5147-9236-586BD8E3D00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87D01DE8-5AF8-A549-B796-E7B14FB56D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="600" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{8FE0DE37-2281-4340-980C-4342B349F7EB}"/>
+    <workbookView xWindow="1340" yWindow="600" windowWidth="28040" windowHeight="17440" xr2:uid="{ECDB7C46-CA4B-7A4B-8E0C-07FA2F2D8691}"/>
   </bookViews>
   <sheets>
     <sheet name="Overhead" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="102">
   <si>
     <t>KB</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Hamza Azaden</t>
   </si>
   <si>
+    <t>Darbaz Salh Ramazan</t>
+  </si>
+  <si>
     <t>Farhad Haydar</t>
   </si>
   <si>
@@ -157,6 +160,9 @@
     <t xml:space="preserve">Sihad Omer Reshid </t>
   </si>
   <si>
+    <t>Issa Abbas Rasoul</t>
+  </si>
+  <si>
     <t>Salam Abdullah Mohammed</t>
   </si>
   <si>
@@ -169,6 +175,9 @@
     <t xml:space="preserve">Hedayat taher </t>
   </si>
   <si>
+    <t xml:space="preserve">Othman Anas Hassan </t>
+  </si>
+  <si>
     <t>Nareman Muhamad</t>
   </si>
   <si>
@@ -196,27 +205,18 @@
     <t>Hamza Al-Helwa</t>
   </si>
   <si>
-    <t>Haidar Fahmi Abas</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
-    <t>X</t>
+    <t>LOA</t>
+  </si>
+  <si>
+    <t>WH</t>
   </si>
   <si>
     <t>TD</t>
   </si>
   <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
     <t>Yaseen Abdulla Dabos</t>
   </si>
   <si>
@@ -292,9 +292,6 @@
     <t>Bizhar Abdulla</t>
   </si>
   <si>
-    <t>Othman Anas Hasan</t>
-  </si>
-  <si>
     <t>Goran Mohammed Gardi</t>
   </si>
   <si>
@@ -322,6 +319,9 @@
     <t>Sarbast Ameen</t>
   </si>
   <si>
+    <t xml:space="preserve">Ali Ghalib </t>
+  </si>
+  <si>
     <t>SWT</t>
   </si>
   <si>
@@ -340,10 +340,10 @@
     <t>Barzan Sadiq Abdullah</t>
   </si>
   <si>
-    <t>Abderrahmane Khlil</t>
-  </si>
-  <si>
     <t>PH</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -694,14 +694,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD3E0A8C-7EF2-DA4C-B71B-5AFF6F2BDCA4}">
-  <dimension ref="A1:AB6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3808DF15-3E68-844B-887B-B244E3DADAC4}">
+  <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>262</v>
       </c>
@@ -712,10 +712,10 @@
         <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K1" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="L1" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="M1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N1" t="s">
         <v>0</v>
@@ -748,37 +748,37 @@
         <v>0</v>
       </c>
       <c r="P1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Q1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="R1" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="S1" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="T1" t="s">
         <v>0</v>
       </c>
       <c r="U1" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="V1" t="s">
         <v>0</v>
       </c>
       <c r="W1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="X1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Y1" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="Z1" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="AA1" t="s">
         <v>0</v>
@@ -786,8 +786,26 @@
       <c r="AB1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1862</v>
       </c>
@@ -798,10 +816,10 @@
         <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
@@ -813,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N2" t="s">
         <v>0</v>
@@ -834,37 +852,37 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Q2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="T2" t="s">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="V2" t="s">
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="s">
         <v>0</v>
@@ -872,8 +890,26 @@
       <c r="AB2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3326</v>
       </c>
@@ -884,34 +920,34 @@
         <v>98</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G3" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="H3" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="I3" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="L3" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="M3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N3" t="s">
         <v>0</v>
@@ -920,37 +956,37 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Q3" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="R3" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="T3" t="s">
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="V3" t="s">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Y3" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="s">
         <v>0</v>
@@ -958,8 +994,26 @@
       <c r="AB3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>456</v>
       </c>
@@ -970,10 +1024,10 @@
         <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
@@ -985,153 +1039,90 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="M4" t="s">
+        <v>100</v>
+      </c>
+      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>55</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="s">
         <v>101</v>
       </c>
-      <c r="N4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" t="s">
-        <v>53</v>
-      </c>
-      <c r="T4" t="s">
-        <v>0</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="AD4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF4" t="s">
         <v>101</v>
       </c>
-      <c r="V4" t="s">
-        <v>0</v>
-      </c>
-      <c r="W4" t="s">
-        <v>0</v>
-      </c>
-      <c r="X4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2431</v>
-      </c>
+      <c r="AG4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>94</v>
       </c>
-      <c r="C5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" t="s">
-        <v>101</v>
-      </c>
-      <c r="N5" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" t="s">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>0</v>
-      </c>
-      <c r="R5" t="s">
-        <v>53</v>
-      </c>
-      <c r="S5" t="s">
-        <v>53</v>
-      </c>
-      <c r="T5" t="s">
-        <v>0</v>
-      </c>
-      <c r="U5" t="s">
-        <v>101</v>
-      </c>
-      <c r="V5" t="s">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s">
-        <v>0</v>
-      </c>
-      <c r="X5" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>94</v>
       </c>
@@ -1142,14 +1133,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1533286-E6C8-544B-B3F2-94CC4487C40E}">
-  <dimension ref="A1:AG35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E373C5B-F809-4C4B-B771-C6576D5A037E}">
+  <dimension ref="A1:AH35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>183</v>
       </c>
@@ -1208,49 +1199,52 @@
         <v>2</v>
       </c>
       <c r="T1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U1" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="W1" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="X1" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="Y1" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="Z1" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AA1" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AB1" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AC1" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AD1" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AE1" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AF1" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AG1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2660</v>
       </c>
@@ -1306,52 +1300,55 @@
         <v>2</v>
       </c>
       <c r="S2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T2" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Z2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AB2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AC2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AD2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AE2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>753</v>
       </c>
@@ -1362,97 +1359,100 @@
         <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="P3" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="S3" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="T3" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y3" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2062</v>
       </c>
@@ -1484,76 +1484,79 @@
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Y4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Z4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AB4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AC4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AD4" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AE4" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AF4" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AG4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1576</v>
       </c>
@@ -1564,97 +1567,100 @@
         <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="M5" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="P5" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="R5" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="S5" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="T5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Y5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Z5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AB5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AC5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AD5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AE5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>751</v>
       </c>
@@ -1665,13 +1671,13 @@
         <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
         <v>0</v>
@@ -1689,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="N6" t="s">
         <v>0</v>
@@ -1710,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="T6" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="U6" t="s">
         <v>0</v>
@@ -1722,40 +1728,43 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="X6" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Y6" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="Z6" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AA6" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2171</v>
       </c>
@@ -1766,97 +1775,100 @@
         <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="M7" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="P7" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="R7" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="S7" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="T7" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="U7" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="V7" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="W7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X7" t="s">
         <v>2</v>
       </c>
       <c r="Y7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA7" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="AB7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF7" t="s">
         <v>2</v>
       </c>
       <c r="AG7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1049</v>
       </c>
@@ -1867,97 +1879,100 @@
         <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="J8" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="K8" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="M8" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="N8" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="O8" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="P8" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="Q8" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="R8" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="S8" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="T8" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="U8" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="V8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="W8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Y8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Z8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AA8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AB8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AC8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AD8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AE8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AF8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AG8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3648</v>
       </c>
@@ -1968,40 +1983,40 @@
         <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P9" t="s">
         <v>2</v>
@@ -2022,43 +2037,46 @@
         <v>2</v>
       </c>
       <c r="V9" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W9" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="X9" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="Y9" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="Z9" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="AA9" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="AB9" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="AC9" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="AD9" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="AF9" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="AG9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3649</v>
       </c>
@@ -2117,49 +2135,52 @@
         <v>2</v>
       </c>
       <c r="T10" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="U10" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="V10" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="W10" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="X10" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="Y10" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="Z10" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AA10" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AB10" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AC10" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AD10" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AE10" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AF10" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AG10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3654</v>
       </c>
@@ -2170,40 +2191,40 @@
         <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="L11" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="M11" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="P11" t="s">
         <v>2</v>
@@ -2236,31 +2257,34 @@
         <v>2</v>
       </c>
       <c r="Z11" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AA11" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AB11" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AC11" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AD11" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AE11" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AF11" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AG11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3598</v>
       </c>
@@ -2271,37 +2295,37 @@
         <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="L12" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="M12" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="O12" t="s">
         <v>2</v>
@@ -2337,31 +2361,34 @@
         <v>2</v>
       </c>
       <c r="Z12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AB12" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AC12" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AD12" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AE12" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AF12" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AG12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3990</v>
       </c>
@@ -2372,97 +2399,100 @@
         <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Y13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Z13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AB13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AC13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AD13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AE13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4031</v>
       </c>
@@ -2473,46 +2503,46 @@
         <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M14" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O14" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P14" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R14" t="s">
         <v>0</v>
@@ -2521,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U14" t="s">
         <v>2</v>
@@ -2560,10 +2590,13 @@
         <v>2</v>
       </c>
       <c r="AG14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1531</v>
       </c>
@@ -2646,25 +2679,28 @@
         <v>2</v>
       </c>
       <c r="AB15" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AC15" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AD15" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AE15" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2128</v>
       </c>
@@ -2708,25 +2744,25 @@
         <v>2</v>
       </c>
       <c r="O16" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="S16" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="T16" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="U16" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="V16" t="s">
         <v>2</v>
@@ -2747,25 +2783,28 @@
         <v>2</v>
       </c>
       <c r="AB16" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AC16" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AD16" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AE16" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AF16" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AG16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4030</v>
       </c>
@@ -2860,13 +2899,16 @@
         <v>2</v>
       </c>
       <c r="AF17" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4033</v>
       </c>
@@ -2883,91 +2925,94 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H18" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I18" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="J18" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="K18" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L18" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="M18" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="N18" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="O18" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="P18" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="Q18" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="R18" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="S18" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="T18" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="U18" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="V18" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="W18" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="X18" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="Y18" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="Z18" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AA18" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AB18" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AC18" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AD18" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AE18" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AF18" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AG18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4034</v>
       </c>
@@ -2978,97 +3023,100 @@
         <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="K19" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="L19" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="M19" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="P19" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="R19" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="S19" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="T19" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="U19" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="V19" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="W19" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="X19" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="Y19" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="Z19" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AC19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AD19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AE19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1823</v>
       </c>
@@ -3079,97 +3127,100 @@
         <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="K20" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="L20" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="M20" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="O20" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="R20" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="S20" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="T20" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="U20" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="V20" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="W20" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="X20" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="Y20" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="Z20" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="AA20" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="AB20" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3330</v>
       </c>
@@ -3228,22 +3279,22 @@
         <v>2</v>
       </c>
       <c r="T21" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="U21" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="V21" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="W21" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="X21" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="Y21" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="s">
         <v>2</v>
@@ -3258,19 +3309,22 @@
         <v>2</v>
       </c>
       <c r="AD21" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF21" t="s">
         <v>2</v>
       </c>
       <c r="AG21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1870</v>
       </c>
@@ -3329,49 +3383,52 @@
         <v>2</v>
       </c>
       <c r="T22" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="W22" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="X22" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="Y22" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="Z22" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AA22" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AB22" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AC22" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AD22" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AE22" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AF22" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AG22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1868</v>
       </c>
@@ -3382,97 +3439,100 @@
         <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="O23" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="P23" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="Q23" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="R23" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="S23" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="T23" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="U23" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="V23" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="W23" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="X23" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="Y23" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="Z23" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AA23" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AB23" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AC23" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AD23" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AE23" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF23" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AG23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2053</v>
       </c>
@@ -3516,64 +3576,67 @@
         <v>2</v>
       </c>
       <c r="O24" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P24" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="Q24" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="R24" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="S24" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="T24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="V24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Y24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Z24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AB24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AC24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AD24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AE24" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AF24" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="AG24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>258</v>
       </c>
@@ -3608,116 +3671,182 @@
         <v>2</v>
       </c>
       <c r="L25" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="N25" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="O25" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="P25" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="Q25" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="R25" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="S25" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="T25" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="U25" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="V25" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="W25" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="X25" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="Y25" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="Z25" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AA25" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AB25" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AC25" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AD25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AE25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>5279</v>
+        <v>459</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
         <v>84</v>
       </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" t="s">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>2</v>
+      </c>
+      <c r="O26" t="s">
+        <v>2</v>
+      </c>
+      <c r="P26" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>2</v>
+      </c>
+      <c r="R26" t="s">
+        <v>2</v>
+      </c>
+      <c r="S26" t="s">
+        <v>2</v>
+      </c>
+      <c r="T26" t="s">
+        <v>2</v>
+      </c>
+      <c r="U26" t="s">
+        <v>2</v>
+      </c>
+      <c r="V26" t="s">
+        <v>55</v>
+      </c>
+      <c r="W26" t="s">
+        <v>55</v>
+      </c>
       <c r="X26" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="Y26" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="Z26" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AA26" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AB26" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AC26" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AD26" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AE26" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AF26" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AG26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>459</v>
+        <v>5281</v>
       </c>
       <c r="B27" t="s">
         <v>95</v>
@@ -3726,28 +3855,28 @@
         <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" t="s">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K27" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L27" t="s">
         <v>2</v>
@@ -3756,69 +3885,72 @@
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="P27" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="Q27" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="R27" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="S27" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="T27" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="U27" t="s">
         <v>2</v>
       </c>
       <c r="V27" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W27" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="X27" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Y27" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Z27" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA27" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB27" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AC27" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AD27" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AE27" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AF27" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AG27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>5281</v>
+        <v>1127</v>
       </c>
       <c r="B28" t="s">
         <v>95</v>
@@ -3827,28 +3959,28 @@
         <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28" t="s">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="I28" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="K28" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="L28" t="s">
         <v>2</v>
@@ -3857,25 +3989,25 @@
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="P28" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="Q28" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="R28" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="S28" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="T28" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="U28" t="s">
         <v>2</v>
@@ -3902,24 +4034,27 @@
         <v>2</v>
       </c>
       <c r="AC28" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="AD28" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF28" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AG28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1127</v>
+        <v>1430</v>
       </c>
       <c r="B29" t="s">
         <v>95</v>
@@ -3928,28 +4063,28 @@
         <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="L29" t="s">
         <v>2</v>
@@ -3958,19 +4093,19 @@
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O29" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P29" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q29" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R29" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S29" t="s">
         <v>2</v>
@@ -3982,25 +4117,25 @@
         <v>2</v>
       </c>
       <c r="V29" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="W29" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="X29" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="Y29" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="Z29" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC29" t="s">
         <v>0</v>
@@ -4017,10 +4152,13 @@
       <c r="AG29" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1430</v>
+        <v>656</v>
       </c>
       <c r="B30" t="s">
         <v>95</v>
@@ -4029,64 +4167,64 @@
         <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="P30" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="Q30" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="R30" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="S30" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="T30" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="U30" t="s">
         <v>2</v>
       </c>
       <c r="V30" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W30" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X30" t="s">
         <v>2</v>
@@ -4104,24 +4242,27 @@
         <v>2</v>
       </c>
       <c r="AC30" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD30" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF30" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AG30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>656</v>
+        <v>2745</v>
       </c>
       <c r="B31" t="s">
         <v>95</v>
@@ -4130,34 +4271,34 @@
         <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E31" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="G31" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="H31" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="I31" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="J31" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="K31" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="L31" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="M31" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="N31" t="s">
         <v>0</v>
@@ -4181,28 +4322,28 @@
         <v>2</v>
       </c>
       <c r="U31" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X31" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB31" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC31" t="s">
         <v>0</v>
@@ -4217,12 +4358,15 @@
         <v>0</v>
       </c>
       <c r="AG31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>2745</v>
+        <v>158</v>
       </c>
       <c r="B32" t="s">
         <v>95</v>
@@ -4231,99 +4375,102 @@
         <v>90</v>
       </c>
       <c r="D32" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H32" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K32" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="P32" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="Q32" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="R32" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="S32" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="T32" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="U32" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="V32" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="W32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Y32" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="Z32" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="AA32" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="AB32" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="AC32" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="AD32" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="AE32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>158</v>
+        <v>616</v>
       </c>
       <c r="B33" t="s">
         <v>95</v>
@@ -4332,99 +4479,102 @@
         <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S33" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="T33" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="U33" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="V33" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="W33" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="X33" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Y33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Z33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AA33" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB33" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AC33" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AD33" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AE33" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AF33" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AG33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>616</v>
+        <v>1692</v>
       </c>
       <c r="B34" t="s">
         <v>95</v>
@@ -4433,85 +4583,85 @@
         <v>92</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F34" t="s">
         <v>55</v>
       </c>
       <c r="G34" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD34" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE34" t="s">
         <v>0</v>
@@ -4522,106 +4672,112 @@
       <c r="AG34" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AH34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1692</v>
+        <v>2054</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
         <v>93</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K35" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="L35" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="N35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S35" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="T35" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="U35" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="V35" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="W35" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="X35" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Y35" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="Z35" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="AA35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AB35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AC35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AD35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AE35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AG35" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4630,16 +4786,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C11BEB-001E-8349-85E6-301CDE3C6E0D}">
-  <dimension ref="A1:N60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFBD63E-CB45-534C-9BAE-D25821636F43}">
+  <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:A49"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>876</v>
       </c>
@@ -4650,7 +4804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>877</v>
       </c>
@@ -4693,8 +4847,26 @@
       <c r="N2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1226</v>
       </c>
@@ -4705,40 +4877,58 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>0</v>
-      </c>
       <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
+      <c r="Q3" t="s">
         <v>1</v>
       </c>
-      <c r="M3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2656</v>
       </c>
@@ -4748,8 +4938,59 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2779</v>
       </c>
@@ -4759,8 +5000,29 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4101</v>
       </c>
@@ -4770,8 +5032,11 @@
       <c r="C6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>784</v>
       </c>
@@ -4802,9 +5067,6 @@
       <c r="J7" t="s">
         <v>0</v>
       </c>
-      <c r="K7" t="s">
-        <v>0</v>
-      </c>
       <c r="L7" t="s">
         <v>0</v>
       </c>
@@ -4814,8 +5076,26 @@
       <c r="N7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4076</v>
       </c>
@@ -4826,7 +5106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4071</v>
       </c>
@@ -4836,35 +5116,8 @@
       <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4078</v>
       </c>
@@ -4875,7 +5128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4834</v>
       </c>
@@ -4886,9 +5139,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>4106</v>
+        <v>2199</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -4897,9 +5150,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>4314</v>
+        <v>4106</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -4907,10 +5160,58 @@
       <c r="C13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>4332</v>
+        <v>4314</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -4918,10 +5219,34 @@
       <c r="C14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" t="s">
+        <v>2</v>
+      </c>
+      <c r="S14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>4297</v>
+        <v>4332</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -4930,9 +5255,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>4295</v>
+        <v>4297</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -4941,7 +5266,7 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>2</v>
@@ -4949,10 +5274,37 @@
       <c r="K16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16" t="s">
+        <v>2</v>
+      </c>
+      <c r="S16" t="s">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>4296</v>
+        <v>4295</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -4961,15 +5313,42 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" t="s">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>4299</v>
+        <v>4296</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -4977,10 +5356,61 @@
       <c r="C18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" t="s">
+        <v>2</v>
+      </c>
+      <c r="S18" t="s">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>4298</v>
+        <v>4299</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -4989,9 +5419,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>4863</v>
+        <v>4298</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -4999,10 +5429,34 @@
       <c r="C20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" t="s">
+        <v>2</v>
+      </c>
+      <c r="S20" t="s">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>4312</v>
+        <v>4863</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
@@ -5010,10 +5464,46 @@
       <c r="C21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>2</v>
+      </c>
+      <c r="O21" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>2</v>
+      </c>
+      <c r="R21" t="s">
+        <v>2</v>
+      </c>
+      <c r="S21" t="s">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>4318</v>
+        <v>4312</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -5022,9 +5512,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>4313</v>
+        <v>4318</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -5032,10 +5522,55 @@
       <c r="C23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>0</v>
+      </c>
+      <c r="R23" t="s">
+        <v>0</v>
+      </c>
+      <c r="S23" t="s">
+        <v>0</v>
+      </c>
+      <c r="T23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>4836</v>
+        <v>4313</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
@@ -5044,9 +5579,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>4839</v>
+        <v>4836</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
@@ -5054,34 +5589,10 @@
       <c r="C25" t="s">
         <v>3</v>
       </c>
-      <c r="D25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" t="s">
-        <v>2</v>
-      </c>
-      <c r="I25" t="s">
-        <v>2</v>
-      </c>
-      <c r="J25" t="s">
-        <v>2</v>
-      </c>
-      <c r="K25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>4256</v>
+        <v>4839</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
@@ -5090,9 +5601,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>4845</v>
+        <v>4256</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
@@ -5101,9 +5612,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>4842</v>
+        <v>4845</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
@@ -5111,10 +5622,22 @@
       <c r="C28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>4242</v>
+        <v>4842</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
@@ -5122,10 +5645,19 @@
       <c r="C29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2</v>
+      </c>
+      <c r="P29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>4241</v>
+        <v>4242</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -5134,9 +5666,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>4812</v>
+        <v>4241</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
@@ -5145,9 +5677,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>4823</v>
+        <v>4812</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
@@ -5156,9 +5688,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>4821</v>
+        <v>4823</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
@@ -5167,9 +5699,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>4831</v>
+        <v>4821</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
@@ -5178,9 +5710,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>4830</v>
+        <v>4831</v>
       </c>
       <c r="B35" t="s">
         <v>38</v>
@@ -5189,9 +5721,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>4940</v>
+        <v>4830</v>
       </c>
       <c r="B36" t="s">
         <v>39</v>
@@ -5200,9 +5732,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>4977</v>
+        <v>4819</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
@@ -5211,9 +5743,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>4945</v>
+        <v>4940</v>
       </c>
       <c r="B38" t="s">
         <v>41</v>
@@ -5221,10 +5753,25 @@
       <c r="C38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P38" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>2</v>
+      </c>
+      <c r="R38" t="s">
+        <v>2</v>
+      </c>
+      <c r="S38" t="s">
+        <v>2</v>
+      </c>
+      <c r="T38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>269</v>
+        <v>4977</v>
       </c>
       <c r="B39" t="s">
         <v>42</v>
@@ -5233,9 +5780,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>4057</v>
+        <v>4945</v>
       </c>
       <c r="B40" t="s">
         <v>43</v>
@@ -5244,9 +5791,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>1662</v>
+        <v>269</v>
       </c>
       <c r="B41" t="s">
         <v>44</v>
@@ -5254,43 +5801,10 @@
       <c r="C41" t="s">
         <v>3</v>
       </c>
-      <c r="D41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>2</v>
-      </c>
-      <c r="F41" t="s">
-        <v>2</v>
-      </c>
-      <c r="G41" t="s">
-        <v>2</v>
-      </c>
-      <c r="H41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I41" t="s">
-        <v>2</v>
-      </c>
-      <c r="J41" t="s">
-        <v>2</v>
-      </c>
-      <c r="K41" t="s">
-        <v>2</v>
-      </c>
-      <c r="L41" t="s">
-        <v>0</v>
-      </c>
-      <c r="M41" t="s">
-        <v>0</v>
-      </c>
-      <c r="N41" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>2198</v>
+        <v>5279</v>
       </c>
       <c r="B42" t="s">
         <v>45</v>
@@ -5299,9 +5813,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>5426</v>
+        <v>4057</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
@@ -5309,10 +5823,19 @@
       <c r="C43" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L43" t="s">
+        <v>2</v>
+      </c>
+      <c r="M43" t="s">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>1825</v>
+        <v>1662</v>
       </c>
       <c r="B44" t="s">
         <v>47</v>
@@ -5321,9 +5844,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>2188</v>
+        <v>2198</v>
       </c>
       <c r="B45" t="s">
         <v>48</v>
@@ -5332,9 +5855,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>4066</v>
+        <v>5426</v>
       </c>
       <c r="B46" t="s">
         <v>49</v>
@@ -5343,9 +5866,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>963</v>
+        <v>1825</v>
       </c>
       <c r="B47" t="s">
         <v>50</v>
@@ -5353,8 +5876,62 @@
       <c r="C47" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47" t="s">
+        <v>2</v>
+      </c>
+      <c r="I47" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" t="s">
+        <v>2</v>
+      </c>
+      <c r="K47" t="s">
+        <v>2</v>
+      </c>
+      <c r="L47" t="s">
+        <v>2</v>
+      </c>
+      <c r="M47" t="s">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>2</v>
+      </c>
+      <c r="O47" t="s">
+        <v>2</v>
+      </c>
+      <c r="P47" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>2</v>
+      </c>
+      <c r="R47" t="s">
+        <v>2</v>
+      </c>
+      <c r="S47" t="s">
+        <v>2</v>
+      </c>
+      <c r="T47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2188</v>
+      </c>
       <c r="B48" t="s">
         <v>51</v>
       </c>
@@ -5362,65 +5939,125 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>4066</v>
+      </c>
       <c r="B49" t="s">
         <v>52</v>
       </c>
       <c r="C49" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>2</v>
+      </c>
+      <c r="I49" t="s">
+        <v>2</v>
+      </c>
+      <c r="J49" t="s">
+        <v>2</v>
+      </c>
+      <c r="K49" t="s">
+        <v>2</v>
+      </c>
+      <c r="L49" t="s">
+        <v>2</v>
+      </c>
+      <c r="M49" t="s">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>2</v>
+      </c>
+      <c r="O49" t="s">
+        <v>2</v>
+      </c>
+      <c r="P49" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>2</v>
+      </c>
+      <c r="R49" t="s">
+        <v>2</v>
+      </c>
+      <c r="S49" t="s">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>963</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
       <c r="C50" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
       <c r="C51" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -5431,12 +6068,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A750DA-B89C-864B-B55E-55B1BB34D57C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E248E92E-CC0B-064E-B4F7-A2C3D63F8AF0}">
   <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -5461,6 +6096,12 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
@@ -5470,12 +6111,12 @@
       <c r="H2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>0</v>
-      </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
       <c r="L2" t="s">
         <v>0</v>
       </c>
@@ -5486,9 +6127,6 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
         <v>0</v>
       </c>
       <c r="Q2" t="s">
@@ -5506,46 +6144,46 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>0</v>
-      </c>
       <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s">
         <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -5558,27 +6196,6 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>2</v>
-      </c>
       <c r="K4" t="s">
         <v>2</v>
       </c>
@@ -5589,7 +6206,16 @@
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -5614,21 +6240,24 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5642,39 +6271,6 @@
       <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" t="s">
-        <v>0</v>
-      </c>
       <c r="P7" t="s">
         <v>0</v>
       </c>
@@ -5703,6 +6299,9 @@
       <c r="C9" t="s">
         <v>3</v>
       </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
       <c r="E9" t="s">
         <v>0</v>
       </c>
@@ -5715,10 +6314,10 @@
       <c r="H9" t="s">
         <v>0</v>
       </c>
-      <c r="I9" t="s">
-        <v>0</v>
-      </c>
       <c r="J9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
         <v>0</v>
       </c>
       <c r="L9" t="s">
@@ -5764,7 +6363,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>4106</v>
+        <v>2199</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -5775,7 +6374,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>4314</v>
+        <v>4106</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -5783,31 +6382,10 @@
       <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>4332</v>
+        <v>4314</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -5815,16 +6393,22 @@
       <c r="C14" t="s">
         <v>3</v>
       </c>
-      <c r="F14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>2</v>
+      <c r="N14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>4297</v>
+        <v>4332</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -5832,25 +6416,10 @@
       <c r="C15" t="s">
         <v>3</v>
       </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>4295</v>
+        <v>4297</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -5858,34 +6427,10 @@
       <c r="C16" t="s">
         <v>3</v>
       </c>
-      <c r="F16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" t="s">
-        <v>2</v>
-      </c>
-      <c r="K16" t="s">
-        <v>2</v>
-      </c>
-      <c r="L16" t="s">
-        <v>2</v>
-      </c>
-      <c r="M16" t="s">
-        <v>2</v>
-      </c>
-      <c r="N16" t="s">
-        <v>2</v>
-      </c>
-      <c r="O16" t="s">
-        <v>2</v>
-      </c>
-      <c r="P16" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>4296</v>
+        <v>4295</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -5893,40 +6438,40 @@
       <c r="C17" t="s">
         <v>3</v>
       </c>
-      <c r="D17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>2</v>
-      </c>
       <c r="H17" t="s">
         <v>2</v>
       </c>
       <c r="I17" t="s">
         <v>2</v>
       </c>
+      <c r="J17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" t="s">
+        <v>2</v>
+      </c>
       <c r="N17" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P17" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>4299</v>
+        <v>4296</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -5934,10 +6479,22 @@
       <c r="C18" t="s">
         <v>3</v>
       </c>
+      <c r="L18" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>4298</v>
+        <v>4299</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -5948,7 +6505,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>4863</v>
+        <v>4298</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -5959,7 +6516,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>4312</v>
+        <v>4863</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
@@ -5967,28 +6524,10 @@
       <c r="C21" t="s">
         <v>3</v>
       </c>
-      <c r="D21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>4318</v>
+        <v>4312</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -5999,7 +6538,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>4313</v>
+        <v>4318</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -6008,27 +6547,48 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>2</v>
-      </c>
-      <c r="I23" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>0</v>
+      </c>
+      <c r="P23" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>4836</v>
+        <v>4313</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
@@ -6039,7 +6599,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>4839</v>
+        <v>4836</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
@@ -6047,52 +6607,10 @@
       <c r="C25" t="s">
         <v>3</v>
       </c>
-      <c r="D25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" t="s">
-        <v>2</v>
-      </c>
-      <c r="I25" t="s">
-        <v>2</v>
-      </c>
-      <c r="J25" t="s">
-        <v>2</v>
-      </c>
-      <c r="K25" t="s">
-        <v>2</v>
-      </c>
-      <c r="L25" t="s">
-        <v>2</v>
-      </c>
-      <c r="M25" t="s">
-        <v>2</v>
-      </c>
-      <c r="N25" t="s">
-        <v>2</v>
-      </c>
-      <c r="O25" t="s">
-        <v>2</v>
-      </c>
-      <c r="P25" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>4256</v>
+        <v>4839</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
@@ -6103,7 +6621,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>4845</v>
+        <v>4256</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
@@ -6111,25 +6629,10 @@
       <c r="C27" t="s">
         <v>3</v>
       </c>
-      <c r="D27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>4842</v>
+        <v>4845</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
@@ -6137,10 +6640,40 @@
       <c r="C28" t="s">
         <v>3</v>
       </c>
+      <c r="H28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K28" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>2</v>
+      </c>
+      <c r="O28" t="s">
+        <v>2</v>
+      </c>
+      <c r="P28" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>4242</v>
+        <v>4842</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
@@ -6148,10 +6681,13 @@
       <c r="C29" t="s">
         <v>3</v>
       </c>
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>4241</v>
+        <v>4242</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -6162,7 +6698,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>4812</v>
+        <v>4241</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
@@ -6173,7 +6709,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>4823</v>
+        <v>4812</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
@@ -6184,7 +6720,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>4821</v>
+        <v>4823</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
@@ -6195,7 +6731,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>4831</v>
+        <v>4821</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
@@ -6206,7 +6742,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>4830</v>
+        <v>4831</v>
       </c>
       <c r="B35" t="s">
         <v>38</v>
@@ -6217,7 +6753,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>4940</v>
+        <v>4830</v>
       </c>
       <c r="B36" t="s">
         <v>39</v>
@@ -6225,28 +6761,10 @@
       <c r="C36" t="s">
         <v>3</v>
       </c>
-      <c r="D36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" t="s">
-        <v>2</v>
-      </c>
-      <c r="G36" t="s">
-        <v>2</v>
-      </c>
-      <c r="H36" t="s">
-        <v>2</v>
-      </c>
-      <c r="I36" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>4977</v>
+        <v>4819</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
@@ -6257,7 +6775,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>4945</v>
+        <v>4940</v>
       </c>
       <c r="B38" t="s">
         <v>41</v>
@@ -6265,10 +6783,34 @@
       <c r="C38" t="s">
         <v>3</v>
       </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K38" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>269</v>
+        <v>4977</v>
       </c>
       <c r="B39" t="s">
         <v>42</v>
@@ -6279,7 +6821,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>4057</v>
+        <v>4945</v>
       </c>
       <c r="B40" t="s">
         <v>43</v>
@@ -6287,43 +6829,10 @@
       <c r="C40" t="s">
         <v>3</v>
       </c>
-      <c r="D40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" t="s">
-        <v>2</v>
-      </c>
-      <c r="F40" t="s">
-        <v>2</v>
-      </c>
-      <c r="G40" t="s">
-        <v>2</v>
-      </c>
-      <c r="H40" t="s">
-        <v>2</v>
-      </c>
-      <c r="I40" t="s">
-        <v>0</v>
-      </c>
-      <c r="J40" t="s">
-        <v>0</v>
-      </c>
-      <c r="N40" t="s">
-        <v>0</v>
-      </c>
-      <c r="O40" t="s">
-        <v>0</v>
-      </c>
-      <c r="P40" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>1662</v>
+        <v>269</v>
       </c>
       <c r="B41" t="s">
         <v>44</v>
@@ -6331,52 +6840,10 @@
       <c r="C41" t="s">
         <v>3</v>
       </c>
-      <c r="D41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>0</v>
-      </c>
-      <c r="F41" t="s">
-        <v>0</v>
-      </c>
-      <c r="G41" t="s">
-        <v>0</v>
-      </c>
-      <c r="H41" t="s">
-        <v>0</v>
-      </c>
-      <c r="I41" t="s">
-        <v>0</v>
-      </c>
-      <c r="J41" t="s">
-        <v>0</v>
-      </c>
-      <c r="K41" t="s">
-        <v>2</v>
-      </c>
-      <c r="L41" t="s">
-        <v>2</v>
-      </c>
-      <c r="M41" t="s">
-        <v>2</v>
-      </c>
-      <c r="N41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O41" t="s">
-        <v>2</v>
-      </c>
-      <c r="P41" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>2198</v>
+        <v>5279</v>
       </c>
       <c r="B42" t="s">
         <v>45</v>
@@ -6387,7 +6854,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>5426</v>
+        <v>4057</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
@@ -6398,7 +6865,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>1825</v>
+        <v>1662</v>
       </c>
       <c r="B44" t="s">
         <v>47</v>
@@ -6406,31 +6873,10 @@
       <c r="C44" t="s">
         <v>3</v>
       </c>
-      <c r="D44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s">
-        <v>2</v>
-      </c>
-      <c r="F44" t="s">
-        <v>2</v>
-      </c>
-      <c r="G44" t="s">
-        <v>2</v>
-      </c>
-      <c r="H44" t="s">
-        <v>2</v>
-      </c>
-      <c r="I44" t="s">
-        <v>2</v>
-      </c>
-      <c r="J44" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>2188</v>
+        <v>2198</v>
       </c>
       <c r="B45" t="s">
         <v>48</v>
@@ -6441,7 +6887,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>4066</v>
+        <v>5426</v>
       </c>
       <c r="B46" t="s">
         <v>49</v>
@@ -6452,7 +6898,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>963</v>
+        <v>1825</v>
       </c>
       <c r="B47" t="s">
         <v>50</v>
@@ -6460,74 +6906,146 @@
       <c r="C47" t="s">
         <v>3</v>
       </c>
+      <c r="O47" t="s">
+        <v>2</v>
+      </c>
+      <c r="P47" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2188</v>
+      </c>
       <c r="B48" t="s">
         <v>51</v>
       </c>
       <c r="C48" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>4066</v>
+      </c>
       <c r="B49" t="s">
         <v>52</v>
       </c>
       <c r="C49" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>2</v>
+      </c>
+      <c r="I49" t="s">
+        <v>2</v>
+      </c>
+      <c r="J49" t="s">
+        <v>2</v>
+      </c>
+      <c r="K49" t="s">
+        <v>2</v>
+      </c>
+      <c r="L49" t="s">
+        <v>2</v>
+      </c>
+      <c r="M49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>963</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
       <c r="C50" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
       <c r="C51" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -6538,7 +7056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922DACED-7CCF-384F-A4C0-65C934B1E1FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BF350A-7AB5-1240-A437-31DB46CB8F76}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
